--- a/fhir/core/2.2.0/CodeSystem-publication-status-dk-supplement.xlsx
+++ b/fhir/core/2.2.0/CodeSystem-publication-status-dk-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -48,127 +48,103 @@
     <t>Status</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2023-05-04T21:35:52+02:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>HL7 Denmark</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The lifecycle status of a Value Set or Concept Map.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Case Sensitive</t>
+  </si>
+  <si>
+    <t>Value Set (all codes)</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>Compositional</t>
+  </si>
+  <si>
+    <t>Version Needed?</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>Supplements</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/publication-status</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>draft</t>
   </si>
   <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2023-04-30T22:07:34+02:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>HL7 Denmark</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>The lifecycle status of a Value Set or Concept Map.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Case Sensitive</t>
-  </si>
-  <si>
-    <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>Hierarchy</t>
-  </si>
-  <si>
-    <t>Compositional</t>
-  </si>
-  <si>
-    <t>Version Needed?</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>supplement</t>
-  </si>
-  <si>
-    <t>Supplements</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/publication-status</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Draft</t>
-  </si>
-  <si>
-    <t>This resource is still under development and is not yet considered to be ready for normal use.</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>This resource is ready for normal use.</t>
-  </si>
-  <si>
     <t>retired</t>
   </si>
   <si>
-    <t>Retired</t>
-  </si>
-  <si>
-    <t>This resource has been withdrawn or superseded and should no longer be used.</t>
-  </si>
-  <si>
     <t>unknown</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>The authoring system does not know which of the status values currently applies for this resource.  Note: This concept is not to be used for "other" - one of the listed statuses is presumed to apply, it's just not known which one.</t>
   </si>
 </sst>
 </file>
@@ -504,56 +480,40 @@
         <v>40</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/fhir/core/2.2.0/CodeSystem-publication-status-dk-supplement.xlsx
+++ b/fhir/core/2.2.0/CodeSystem-publication-status-dk-supplement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:35:52+02:00</t>
+    <t>2023-05-05T01:37:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
